--- a/资产负债表/300920.xlsx
+++ b/资产负债表/300920.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,61 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>547395787.99</v>
+        <v>336551107.56</v>
       </c>
       <c r="P2" t="n">
-        <v>155875885.99</v>
+        <v>62631484.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>101049804.77</v>
+        <v>10921947.43</v>
       </c>
       <c r="R2" t="n">
-        <v>15.0376987065</v>
+        <v>-47.7913803652</v>
       </c>
       <c r="S2" t="n">
-        <v>90045020.04000001</v>
+        <v>72701040.81</v>
       </c>
       <c r="T2" t="n">
-        <v>28.9335794829</v>
+        <v>128.1333083934</v>
       </c>
       <c r="U2" t="n">
-        <v>21307516.23</v>
+        <v>27236101.22</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0381054396</v>
+        <v>63.8569780609</v>
       </c>
       <c r="W2" t="n">
-        <v>100702504.55</v>
+        <v>65732932.45</v>
       </c>
       <c r="X2" t="n">
-        <v>47070152.72</v>
+        <v>35879683.45</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.0197861876</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>79.0320065856</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>663711.99</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>68.2361768164</v>
+      </c>
       <c r="AB2" t="n">
-        <v>446693283.44</v>
+        <v>270818175.11</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.0510872235</v>
+        <v>213.3747594815</v>
       </c>
       <c r="AD2" t="n">
-        <v>47.1309349041</v>
+        <v>178.2772706778</v>
       </c>
       <c r="AE2" t="n">
-        <v>107.7381132196</v>
+        <v>90.41422964039999</v>
       </c>
       <c r="AF2" t="n">
-        <v>321.5233290004</v>
+        <v>358.6200252865</v>
       </c>
       <c r="AG2" t="n">
-        <v>18.3966531638</v>
+        <v>19.5313374324</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
